--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -73,7 +73,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -216,11 +216,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -295,6 +434,60 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -309,6 +502,47 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="10353675"/>
+          <a:ext cx="2352675" cy="1885950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -598,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:X11"/>
+  <dimension ref="C1:AP69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:Q3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="R69" sqref="C68:R69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -609,8 +843,8 @@
     <col min="1" max="16384" width="4.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C2" s="4">
         <v>2</v>
       </c>
@@ -648,7 +882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C3" s="6">
         <v>2</v>
       </c>
@@ -684,7 +918,7 @@
       </c>
       <c r="X3" s="7"/>
     </row>
-    <row r="4" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C4" s="6">
         <v>2</v>
       </c>
@@ -722,7 +956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C5" s="8">
         <v>4</v>
       </c>
@@ -760,7 +994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="3:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="8">
         <v>4</v>
       </c>
@@ -786,7 +1020,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="7"/>
     </row>
-    <row r="7" spans="3:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="10">
         <v>5</v>
       </c>
@@ -802,7 +1036,7 @@
       <c r="W7" s="23"/>
       <c r="X7" s="11"/>
     </row>
-    <row r="10" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:42" x14ac:dyDescent="0.25">
       <c r="N10" s="1">
         <v>1</v>
       </c>
@@ -816,7 +1050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N11" s="1">
         <v>2</v>
       </c>
@@ -826,10 +1060,1071 @@
       <c r="P11" s="1">
         <v>9</v>
       </c>
+      <c r="AK11" s="26"/>
+      <c r="AL11" s="26"/>
+      <c r="AM11" s="26"/>
+      <c r="AN11" s="26"/>
+      <c r="AO11" s="26"/>
+      <c r="AP11" s="26"/>
+    </row>
+    <row r="12" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="Y12" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="20">
+        <v>3</v>
+      </c>
+      <c r="AA12" s="20">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="34">
+        <v>7</v>
+      </c>
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="34"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="21">
+        <v>14</v>
+      </c>
+      <c r="AK12" s="26"/>
+      <c r="AL12" s="26"/>
+      <c r="AM12" s="26"/>
+      <c r="AN12" s="26"/>
+      <c r="AO12" s="26"/>
+      <c r="AP12" s="26"/>
+    </row>
+    <row r="13" spans="3:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="10">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23">
+        <v>6</v>
+      </c>
+      <c r="AC13" s="23">
+        <v>6</v>
+      </c>
+      <c r="AD13" s="23">
+        <v>8</v>
+      </c>
+      <c r="AE13" s="23">
+        <v>9</v>
+      </c>
+      <c r="AF13" s="23">
+        <v>10</v>
+      </c>
+      <c r="AG13" s="23">
+        <v>11</v>
+      </c>
+      <c r="AH13" s="23">
+        <v>12</v>
+      </c>
+      <c r="AI13" s="23">
+        <v>13</v>
+      </c>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="26"/>
+      <c r="AL13" s="26"/>
+      <c r="AM13" s="26"/>
+      <c r="AN13" s="26"/>
+      <c r="AO13" s="26"/>
+      <c r="AP13" s="26"/>
+    </row>
+    <row r="14" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK14" s="26"/>
+      <c r="AL14" s="26"/>
+      <c r="AM14" s="26"/>
+      <c r="AN14" s="26"/>
+      <c r="AO14" s="26"/>
+      <c r="AP14" s="26"/>
+    </row>
+    <row r="15" spans="3:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="1">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="20">
+        <v>3</v>
+      </c>
+      <c r="AA16" s="20">
+        <v>5</v>
+      </c>
+      <c r="AB16" s="30">
+        <v>7</v>
+      </c>
+      <c r="AC16" s="30">
+        <v>7</v>
+      </c>
+      <c r="AD16" s="30">
+        <v>7</v>
+      </c>
+      <c r="AE16" s="20">
+        <v>10</v>
+      </c>
+      <c r="AF16" s="30">
+        <v>7</v>
+      </c>
+      <c r="AG16" s="30">
+        <v>7</v>
+      </c>
+      <c r="AH16" s="30">
+        <v>7</v>
+      </c>
+      <c r="AI16" s="21">
+        <v>14</v>
+      </c>
+      <c r="AJ16" s="28"/>
+    </row>
+    <row r="17" spans="3:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="10">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23">
+        <v>6</v>
+      </c>
+      <c r="AC17" s="23">
+        <v>6</v>
+      </c>
+      <c r="AD17" s="23">
+        <v>8</v>
+      </c>
+      <c r="AE17" s="23">
+        <v>9</v>
+      </c>
+      <c r="AF17" s="23">
+        <v>11</v>
+      </c>
+      <c r="AG17" s="23">
+        <v>12</v>
+      </c>
+      <c r="AH17" s="23">
+        <v>13</v>
+      </c>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="29"/>
+    </row>
+    <row r="20" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="Y20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="Y21" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>7</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C24" s="32">
+        <v>1</v>
+      </c>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2">
+        <v>6</v>
+      </c>
+      <c r="J24" s="32">
+        <v>8</v>
+      </c>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C25" s="2">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>4</v>
+      </c>
+      <c r="E25" s="32">
+        <v>4</v>
+      </c>
+      <c r="F25" s="33"/>
+      <c r="G25" s="2">
+        <v>3</v>
+      </c>
+      <c r="H25" s="2">
+        <v>5</v>
+      </c>
+      <c r="I25" s="2">
+        <v>7</v>
+      </c>
+      <c r="J25" s="2">
+        <v>9</v>
+      </c>
+      <c r="K25" s="2">
+        <v>10</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1</v>
+      </c>
+      <c r="N25" s="2">
+        <v>12</v>
+      </c>
+      <c r="O25" s="2">
+        <v>13</v>
+      </c>
+      <c r="P25" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="X25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="X26" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X27" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C28" s="19">
+        <v>1</v>
+      </c>
+      <c r="D28" s="27">
+        <v>1</v>
+      </c>
+      <c r="E28" s="27">
+        <v>3</v>
+      </c>
+      <c r="F28" s="27">
+        <v>1</v>
+      </c>
+      <c r="G28" s="27">
+        <v>1</v>
+      </c>
+      <c r="H28" s="27">
+        <v>6</v>
+      </c>
+      <c r="I28" s="27">
+        <v>8</v>
+      </c>
+      <c r="J28" s="27">
+        <v>8</v>
+      </c>
+      <c r="K28" s="27">
+        <v>8</v>
+      </c>
+      <c r="L28" s="27">
+        <v>12</v>
+      </c>
+      <c r="M28" s="27">
+        <v>8</v>
+      </c>
+      <c r="N28" s="27">
+        <v>8</v>
+      </c>
+      <c r="O28" s="21">
+        <v>15</v>
+      </c>
+      <c r="X28" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="10">
+        <v>2</v>
+      </c>
+      <c r="D29" s="23">
+        <v>4</v>
+      </c>
+      <c r="E29" s="23">
+        <v>4</v>
+      </c>
+      <c r="F29" s="23">
+        <v>4</v>
+      </c>
+      <c r="G29" s="23">
+        <v>5</v>
+      </c>
+      <c r="H29" s="23">
+        <v>7</v>
+      </c>
+      <c r="I29" s="23">
+        <v>9</v>
+      </c>
+      <c r="J29" s="23">
+        <v>10</v>
+      </c>
+      <c r="K29" s="23">
+        <v>11</v>
+      </c>
+      <c r="L29" s="23">
+        <v>11</v>
+      </c>
+      <c r="M29" s="23">
+        <v>13</v>
+      </c>
+      <c r="N29" s="23">
+        <v>14</v>
+      </c>
+      <c r="O29" s="11"/>
+      <c r="X29" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="X30" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="3:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X31" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C32" s="19">
+        <v>1</v>
+      </c>
+      <c r="D32" s="27">
+        <v>1</v>
+      </c>
+      <c r="E32" s="27">
+        <v>1</v>
+      </c>
+      <c r="F32" s="27">
+        <v>1</v>
+      </c>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27">
+        <v>6</v>
+      </c>
+      <c r="I32" s="27">
+        <v>8</v>
+      </c>
+      <c r="J32" s="27">
+        <v>8</v>
+      </c>
+      <c r="K32" s="27">
+        <v>8</v>
+      </c>
+      <c r="L32" s="27">
+        <v>8</v>
+      </c>
+      <c r="M32" s="27">
+        <v>8</v>
+      </c>
+      <c r="N32" s="21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C33" s="22">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2">
+        <v>4</v>
+      </c>
+      <c r="E33" s="2">
+        <v>4</v>
+      </c>
+      <c r="F33" s="2">
+        <v>4</v>
+      </c>
+      <c r="G33" s="2">
+        <v>5</v>
+      </c>
+      <c r="H33" s="2">
+        <v>7</v>
+      </c>
+      <c r="I33" s="2">
+        <v>9</v>
+      </c>
+      <c r="J33" s="2">
+        <v>10</v>
+      </c>
+      <c r="K33" s="2">
+        <v>12</v>
+      </c>
+      <c r="L33" s="2">
+        <v>13</v>
+      </c>
+      <c r="M33" s="2">
+        <v>14</v>
+      </c>
+      <c r="N33" s="7"/>
+    </row>
+    <row r="34" spans="3:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="10"/>
+      <c r="D34" s="23">
+        <v>3</v>
+      </c>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23">
+        <v>11</v>
+      </c>
+      <c r="K34" s="23">
+        <v>11</v>
+      </c>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="11"/>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>6</v>
+      </c>
+      <c r="I37" s="1">
+        <v>8</v>
+      </c>
+      <c r="J37" s="1">
+        <v>8</v>
+      </c>
+      <c r="K37" s="1">
+        <v>8</v>
+      </c>
+      <c r="L37" s="1">
+        <v>8</v>
+      </c>
+      <c r="M37" s="1">
+        <v>8</v>
+      </c>
+      <c r="N37" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4</v>
+      </c>
+      <c r="E38" s="1">
+        <v>4</v>
+      </c>
+      <c r="F38" s="1">
+        <v>4</v>
+      </c>
+      <c r="G38" s="1">
+        <v>5</v>
+      </c>
+      <c r="H38" s="1">
+        <v>7</v>
+      </c>
+      <c r="I38" s="1">
+        <v>9</v>
+      </c>
+      <c r="J38" s="1">
+        <v>10</v>
+      </c>
+      <c r="K38" s="1">
+        <v>12</v>
+      </c>
+      <c r="L38" s="1">
+        <v>13</v>
+      </c>
+      <c r="M38" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D39" s="1">
+        <v>3</v>
+      </c>
+      <c r="J39" s="1">
+        <v>11</v>
+      </c>
+      <c r="K39" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C43" s="19">
+        <v>2</v>
+      </c>
+      <c r="D43" s="27">
+        <v>2</v>
+      </c>
+      <c r="E43" s="27">
+        <v>2</v>
+      </c>
+      <c r="F43" s="27">
+        <v>2</v>
+      </c>
+      <c r="G43" s="27">
+        <v>2</v>
+      </c>
+      <c r="H43" s="27">
+        <v>7</v>
+      </c>
+      <c r="I43" s="27">
+        <v>7</v>
+      </c>
+      <c r="J43" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C44" s="22">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>4</v>
+      </c>
+      <c r="E44" s="2">
+        <v>4</v>
+      </c>
+      <c r="F44" s="2">
+        <v>6</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="7"/>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C45" s="22"/>
+      <c r="D45" s="2">
+        <v>5</v>
+      </c>
+      <c r="E45" s="2">
+        <v>5</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="7"/>
+    </row>
+    <row r="46" spans="3:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="10"/>
+      <c r="D46" s="23">
+        <v>3</v>
+      </c>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="11"/>
+    </row>
+    <row r="48" spans="3:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C49" s="19">
+        <v>2</v>
+      </c>
+      <c r="D49" s="27">
+        <v>2</v>
+      </c>
+      <c r="E49" s="27">
+        <v>2</v>
+      </c>
+      <c r="F49" s="27">
+        <v>2</v>
+      </c>
+      <c r="G49" s="27">
+        <v>2</v>
+      </c>
+      <c r="H49" s="27">
+        <v>7</v>
+      </c>
+      <c r="I49" s="27">
+        <v>7</v>
+      </c>
+      <c r="J49" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C50" s="22"/>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2">
+        <v>4</v>
+      </c>
+      <c r="G50" s="2">
+        <v>6</v>
+      </c>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="7"/>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C51" s="22"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2">
+        <v>5</v>
+      </c>
+      <c r="F51" s="2">
+        <v>5</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="7"/>
+    </row>
+    <row r="52" spans="3:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="10"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23">
+        <v>3</v>
+      </c>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="11"/>
+    </row>
+    <row r="54" spans="3:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C55" s="36">
+        <v>2</v>
+      </c>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="41">
+        <v>7</v>
+      </c>
+      <c r="K55" s="37"/>
+      <c r="L55" s="42"/>
+    </row>
+    <row r="56" spans="3:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="10">
+        <v>1</v>
+      </c>
+      <c r="D56" s="23">
+        <v>3</v>
+      </c>
+      <c r="E56" s="39">
+        <v>4</v>
+      </c>
+      <c r="F56" s="40"/>
+      <c r="G56" s="39">
+        <v>5</v>
+      </c>
+      <c r="H56" s="40"/>
+      <c r="I56" s="23">
+        <v>6</v>
+      </c>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="11"/>
+    </row>
+    <row r="59" spans="3:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C60" s="4">
+        <v>2</v>
+      </c>
+      <c r="D60" s="30">
+        <v>2</v>
+      </c>
+      <c r="E60" s="30">
+        <v>2</v>
+      </c>
+      <c r="F60" s="31">
+        <v>3</v>
+      </c>
+      <c r="G60" s="30">
+        <v>2</v>
+      </c>
+      <c r="H60" s="30">
+        <v>2</v>
+      </c>
+      <c r="I60" s="31">
+        <v>7</v>
+      </c>
+      <c r="J60" s="31">
+        <v>7</v>
+      </c>
+      <c r="K60" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="10">
+        <v>1</v>
+      </c>
+      <c r="D61" s="23">
+        <v>4</v>
+      </c>
+      <c r="E61" s="23">
+        <v>4</v>
+      </c>
+      <c r="F61" s="23">
+        <v>5</v>
+      </c>
+      <c r="G61" s="23">
+        <v>5</v>
+      </c>
+      <c r="H61" s="23">
+        <v>6</v>
+      </c>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="11"/>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C64" s="43">
+        <v>1</v>
+      </c>
+      <c r="D64" s="43"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2">
+        <v>6</v>
+      </c>
+      <c r="H64" s="43">
+        <v>7</v>
+      </c>
+      <c r="I64" s="43"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2">
+        <v>12</v>
+      </c>
+      <c r="M64" s="43">
+        <v>13</v>
+      </c>
+      <c r="N64" s="43"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2">
+        <v>18</v>
+      </c>
+      <c r="R64" s="43">
+        <v>19</v>
+      </c>
+      <c r="S64" s="43"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C65" s="2">
+        <v>2</v>
+      </c>
+      <c r="D65" s="2">
+        <v>3</v>
+      </c>
+      <c r="E65" s="2">
+        <v>4</v>
+      </c>
+      <c r="F65" s="2">
+        <v>5</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2">
+        <v>8</v>
+      </c>
+      <c r="I65" s="2">
+        <v>9</v>
+      </c>
+      <c r="J65" s="2">
+        <v>10</v>
+      </c>
+      <c r="K65" s="2">
+        <v>11</v>
+      </c>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2">
+        <v>14</v>
+      </c>
+      <c r="N65" s="2">
+        <v>15</v>
+      </c>
+      <c r="O65" s="2">
+        <v>16</v>
+      </c>
+      <c r="P65" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2">
+        <v>20</v>
+      </c>
+      <c r="S65" s="2">
+        <v>21</v>
+      </c>
+      <c r="T65" s="2">
+        <v>22</v>
+      </c>
+      <c r="U65" s="2">
+        <v>23</v>
+      </c>
+      <c r="V65" s="2"/>
+    </row>
+    <row r="68" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C68" s="3">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2">
+        <v>3</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1</v>
+      </c>
+      <c r="F68" s="2">
+        <v>6</v>
+      </c>
+      <c r="G68" s="3">
+        <v>7</v>
+      </c>
+      <c r="H68" s="2">
+        <v>9</v>
+      </c>
+      <c r="I68" s="3">
+        <v>7</v>
+      </c>
+      <c r="J68" s="2">
+        <v>12</v>
+      </c>
+      <c r="K68" s="3">
+        <v>13</v>
+      </c>
+      <c r="L68" s="2">
+        <v>15</v>
+      </c>
+      <c r="M68" s="3">
+        <v>13</v>
+      </c>
+      <c r="N68" s="2">
+        <v>18</v>
+      </c>
+      <c r="O68" s="3">
+        <v>19</v>
+      </c>
+      <c r="P68" s="2">
+        <v>21</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>19</v>
+      </c>
+      <c r="R68" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C69" s="2">
+        <v>2</v>
+      </c>
+      <c r="D69" s="2">
+        <v>4</v>
+      </c>
+      <c r="E69" s="2">
+        <v>5</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2">
+        <v>8</v>
+      </c>
+      <c r="H69" s="2">
+        <v>10</v>
+      </c>
+      <c r="I69" s="2">
+        <v>11</v>
+      </c>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2">
+        <v>14</v>
+      </c>
+      <c r="L69" s="2">
+        <v>16</v>
+      </c>
+      <c r="M69" s="2">
+        <v>17</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2">
+        <v>20</v>
+      </c>
+      <c r="P69" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>23</v>
+      </c>
+      <c r="R69" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="AB12:AG12"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="C55:G55"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
